--- a/Stats/NUMBEO_Pollution_Index.xlsx
+++ b/Stats/NUMBEO_Pollution_Index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="347">
   <si>
     <t>Rank</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Exp Pollution Index</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>Kathmandu, Nepal</t>
@@ -1409,7 +1412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D343"/>
+  <dimension ref="A1:D362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1434,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>95.7</v>
@@ -1448,7 +1451,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>95.59999999999999</v>
@@ -1462,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>94.5</v>
@@ -1476,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>94.40000000000001</v>
@@ -1490,7 +1493,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>94.40000000000001</v>
@@ -1504,7 +1507,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>94.09999999999999</v>
@@ -1518,7 +1521,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>92.5</v>
@@ -1532,7 +1535,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>91.8</v>
@@ -1546,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>91.09999999999999</v>
@@ -1560,7 +1563,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>91</v>
@@ -1574,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>90.90000000000001</v>
@@ -1588,7 +1591,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>90.8</v>
@@ -1602,7 +1605,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>90.09999999999999</v>
@@ -1616,7 +1619,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>89.8</v>
@@ -1630,7 +1633,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>89.7</v>
@@ -1644,7 +1647,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>89.40000000000001</v>
@@ -1658,7 +1661,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>89.40000000000001</v>
@@ -1672,7 +1675,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>89.3</v>
@@ -1686,7 +1689,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>89.2</v>
@@ -1700,7 +1703,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>88.90000000000001</v>
@@ -1714,7 +1717,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>88.5</v>
@@ -1728,7 +1731,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23">
         <v>88.3</v>
@@ -1742,7 +1745,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>88</v>
@@ -1756,7 +1759,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>87.2</v>
@@ -1770,7 +1773,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>87.2</v>
@@ -1784,7 +1787,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>87.09999999999999</v>
@@ -1798,7 +1801,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>87</v>
@@ -1812,7 +1815,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>85.59999999999999</v>
@@ -1826,7 +1829,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30">
         <v>85.2</v>
@@ -1840,7 +1843,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>85.09999999999999</v>
@@ -1854,7 +1857,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>84.40000000000001</v>
@@ -1868,7 +1871,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>84.3</v>
@@ -1882,7 +1885,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34">
         <v>84.3</v>
@@ -1896,7 +1899,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35">
         <v>84.09999999999999</v>
@@ -1910,7 +1913,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36">
         <v>83.7</v>
@@ -1924,7 +1927,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37">
         <v>83.40000000000001</v>
@@ -1938,7 +1941,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38">
         <v>83.40000000000001</v>
@@ -1952,7 +1955,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39">
         <v>83.3</v>
@@ -1966,7 +1969,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40">
         <v>83</v>
@@ -1980,7 +1983,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41">
         <v>82.59999999999999</v>
@@ -1994,7 +1997,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42">
         <v>82.3</v>
@@ -2008,7 +2011,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43">
         <v>82.09999999999999</v>
@@ -2022,7 +2025,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44">
         <v>82.09999999999999</v>
@@ -2036,7 +2039,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45">
         <v>80.8</v>
@@ -2050,7 +2053,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46">
         <v>80.5</v>
@@ -2064,7 +2067,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47">
         <v>80.5</v>
@@ -2078,7 +2081,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48">
         <v>80.2</v>
@@ -2092,7 +2095,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49">
         <v>79.8</v>
@@ -2106,7 +2109,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50">
         <v>79.2</v>
@@ -2120,7 +2123,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51">
         <v>79</v>
@@ -2134,7 +2137,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52">
         <v>79</v>
@@ -2148,7 +2151,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53">
         <v>78.7</v>
@@ -2162,7 +2165,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54">
         <v>78.7</v>
@@ -2176,7 +2179,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55">
         <v>78.09999999999999</v>
@@ -2190,7 +2193,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56">
         <v>78.09999999999999</v>
@@ -2204,7 +2207,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57">
         <v>77.8</v>
@@ -2218,7 +2221,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58">
         <v>77.8</v>
@@ -2232,7 +2235,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59">
         <v>77.8</v>
@@ -2246,7 +2249,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60">
         <v>77.7</v>
@@ -2260,7 +2263,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61">
         <v>77.59999999999999</v>
@@ -2274,7 +2277,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62">
         <v>76.90000000000001</v>
@@ -2288,7 +2291,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63">
         <v>76.3</v>
@@ -2302,7 +2305,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64">
         <v>76.09999999999999</v>
@@ -2316,7 +2319,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65">
         <v>76</v>
@@ -2330,7 +2333,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66">
         <v>75.3</v>
@@ -2344,7 +2347,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67">
         <v>75.09999999999999</v>
@@ -2358,7 +2361,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68">
         <v>74.7</v>
@@ -2372,7 +2375,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69">
         <v>74.59999999999999</v>
@@ -2386,7 +2389,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70">
         <v>74.5</v>
@@ -2400,7 +2403,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71">
         <v>74.3</v>
@@ -2414,7 +2417,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72">
         <v>73.59999999999999</v>
@@ -2428,7 +2431,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73">
         <v>73.5</v>
@@ -2442,7 +2445,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C74">
         <v>73.09999999999999</v>
@@ -2456,7 +2459,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75">
         <v>73.09999999999999</v>
@@ -2470,7 +2473,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C76">
         <v>72.7</v>
@@ -2484,7 +2487,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77">
         <v>72.59999999999999</v>
@@ -2498,7 +2501,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78">
         <v>72.40000000000001</v>
@@ -2512,7 +2515,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C79">
         <v>72.40000000000001</v>
@@ -2526,7 +2529,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80">
         <v>71.8</v>
@@ -2540,7 +2543,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C81">
         <v>71.59999999999999</v>
@@ -2554,7 +2557,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C82">
         <v>71.59999999999999</v>
@@ -2568,7 +2571,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C83">
         <v>71.5</v>
@@ -2582,7 +2585,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C84">
         <v>71.2</v>
@@ -2596,7 +2599,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C85">
         <v>71.2</v>
@@ -2610,7 +2613,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C86">
         <v>71.09999999999999</v>
@@ -2624,7 +2627,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C87">
         <v>70.90000000000001</v>
@@ -2638,7 +2641,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C88">
         <v>70.8</v>
@@ -2652,7 +2655,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C89">
         <v>70.8</v>
@@ -2666,7 +2669,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C90">
         <v>70.09999999999999</v>
@@ -2680,7 +2683,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C91">
         <v>70</v>
@@ -2694,7 +2697,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C92">
         <v>70</v>
@@ -2708,7 +2711,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C93">
         <v>70</v>
@@ -2722,7 +2725,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C94">
         <v>69.90000000000001</v>
@@ -2736,7 +2739,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C95">
         <v>69.7</v>
@@ -2750,7 +2753,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C96">
         <v>68.90000000000001</v>
@@ -2764,7 +2767,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C97">
         <v>68.8</v>
@@ -2778,7 +2781,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C98">
         <v>68.59999999999999</v>
@@ -2792,7 +2795,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C99">
         <v>68.5</v>
@@ -2806,7 +2809,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C100">
         <v>68.2</v>
@@ -2820,7 +2823,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101">
         <v>67.90000000000001</v>
@@ -2834,7 +2837,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C102">
         <v>67.90000000000001</v>
@@ -2848,7 +2851,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C103">
         <v>67.90000000000001</v>
@@ -2862,7 +2865,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C104">
         <v>67.7</v>
@@ -2876,7 +2879,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C105">
         <v>67.7</v>
@@ -2890,7 +2893,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C106">
         <v>67.5</v>
@@ -2904,7 +2907,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C107">
         <v>66.5</v>
@@ -2918,7 +2921,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C108">
         <v>66.3</v>
@@ -2932,7 +2935,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C109">
         <v>66.09999999999999</v>
@@ -2946,7 +2949,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C110">
         <v>66</v>
@@ -2960,7 +2963,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C111">
         <v>65.8</v>
@@ -2974,7 +2977,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C112">
         <v>65.09999999999999</v>
@@ -2988,7 +2991,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C113">
         <v>65.09999999999999</v>
@@ -3002,7 +3005,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C114">
         <v>65</v>
@@ -3016,7 +3019,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C115">
         <v>64.8</v>
@@ -3030,7 +3033,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C116">
         <v>64.40000000000001</v>
@@ -3044,7 +3047,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C117">
         <v>64.09999999999999</v>
@@ -3058,7 +3061,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C118">
         <v>64</v>
@@ -3072,7 +3075,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C119">
         <v>63.5</v>
@@ -3086,7 +3089,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C120">
         <v>63.4</v>
@@ -3100,7 +3103,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C121">
         <v>63.3</v>
@@ -3114,7 +3117,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C122">
         <v>63</v>
@@ -3128,7 +3131,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C123">
         <v>62.9</v>
@@ -3142,7 +3145,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C124">
         <v>62.9</v>
@@ -3156,7 +3159,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C125">
         <v>62.4</v>
@@ -3170,7 +3173,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C126">
         <v>62.3</v>
@@ -3184,7 +3187,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C127">
         <v>62.2</v>
@@ -3198,7 +3201,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C128">
         <v>62.1</v>
@@ -3212,7 +3215,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C129">
         <v>61.6</v>
@@ -3226,7 +3229,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C130">
         <v>61.4</v>
@@ -3240,7 +3243,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C131">
         <v>61.4</v>
@@ -3254,7 +3257,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C132">
         <v>61.3</v>
@@ -3268,7 +3271,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C133">
         <v>61.3</v>
@@ -3282,7 +3285,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C134">
         <v>61.1</v>
@@ -3296,7 +3299,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C135">
         <v>61.1</v>
@@ -3310,7 +3313,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C136">
         <v>60.8</v>
@@ -3324,7 +3327,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C137">
         <v>60.7</v>
@@ -3338,7 +3341,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C138">
         <v>60.7</v>
@@ -3352,7 +3355,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C139">
         <v>60.6</v>
@@ -3366,7 +3369,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C140">
         <v>60.3</v>
@@ -3380,7 +3383,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C141">
         <v>60.3</v>
@@ -3394,7 +3397,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C142">
         <v>60.2</v>
@@ -3408,7 +3411,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C143">
         <v>60.2</v>
@@ -3422,7 +3425,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C144">
         <v>60</v>
@@ -3436,7 +3439,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C145">
         <v>59.9</v>
@@ -3450,7 +3453,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C146">
         <v>59.8</v>
@@ -3464,7 +3467,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C147">
         <v>59.7</v>
@@ -3478,7 +3481,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C148">
         <v>59.7</v>
@@ -3492,7 +3495,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C149">
         <v>59.5</v>
@@ -3506,7 +3509,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C150">
         <v>59.2</v>
@@ -3520,7 +3523,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C151">
         <v>59.2</v>
@@ -3534,7 +3537,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C152">
         <v>58.9</v>
@@ -3548,7 +3551,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C153">
         <v>58.9</v>
@@ -3562,7 +3565,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C154">
         <v>58.9</v>
@@ -3576,7 +3579,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C155">
         <v>58.6</v>
@@ -3590,7 +3593,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C156">
         <v>58.3</v>
@@ -3604,7 +3607,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C157">
         <v>58.1</v>
@@ -3618,7 +3621,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C158">
         <v>58.1</v>
@@ -3632,7 +3635,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C159">
         <v>58</v>
@@ -3646,7 +3649,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C160">
         <v>58</v>
@@ -3660,7 +3663,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C161">
         <v>57.6</v>
@@ -3674,7 +3677,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C162">
         <v>57.2</v>
@@ -3688,7 +3691,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C163">
         <v>57.2</v>
@@ -3702,7 +3705,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C164">
         <v>57</v>
@@ -3716,7 +3719,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C165">
         <v>56.9</v>
@@ -3730,7 +3733,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C166">
         <v>56.9</v>
@@ -3744,7 +3747,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C167">
         <v>56.5</v>
@@ -3758,7 +3761,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C168">
         <v>56.4</v>
@@ -3772,7 +3775,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C169">
         <v>56</v>
@@ -3786,7 +3789,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C170">
         <v>55.9</v>
@@ -3800,7 +3803,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C171">
         <v>55.9</v>
@@ -3814,7 +3817,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C172">
         <v>55.9</v>
@@ -3828,7 +3831,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C173">
         <v>55.7</v>
@@ -3842,7 +3845,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C174">
         <v>55.5</v>
@@ -3856,7 +3859,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C175">
         <v>55.5</v>
@@ -3870,7 +3873,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C176">
         <v>55</v>
@@ -3884,7 +3887,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C177">
         <v>55</v>
@@ -3898,7 +3901,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C178">
         <v>55</v>
@@ -3912,7 +3915,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C179">
         <v>54.3</v>
@@ -3926,7 +3929,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C180">
         <v>53.7</v>
@@ -3940,7 +3943,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C181">
         <v>53.5</v>
@@ -3954,7 +3957,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C182">
         <v>53.3</v>
@@ -3968,7 +3971,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C183">
         <v>53.1</v>
@@ -3982,7 +3985,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C184">
         <v>53</v>
@@ -3996,7 +3999,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C185">
         <v>52.9</v>
@@ -4010,7 +4013,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C186">
         <v>52.2</v>
@@ -4024,7 +4027,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C187">
         <v>52</v>
@@ -4038,7 +4041,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C188">
         <v>52</v>
@@ -4052,7 +4055,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C189">
         <v>51.9</v>
@@ -4066,7 +4069,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C190">
         <v>51.7</v>
@@ -4080,7 +4083,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C191">
         <v>51.5</v>
@@ -4094,7 +4097,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C192">
         <v>51</v>
@@ -4108,7 +4111,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C193">
         <v>50.7</v>
@@ -4122,7 +4125,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C194">
         <v>50.5</v>
@@ -4136,7 +4139,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C195">
         <v>50.3</v>
@@ -4150,7 +4153,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C196">
         <v>50</v>
@@ -4164,7 +4167,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C197">
         <v>49.7</v>
@@ -4178,7 +4181,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C198">
         <v>49.1</v>
@@ -4192,7 +4195,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C199">
         <v>49.1</v>
@@ -4206,7 +4209,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C200">
         <v>49</v>
@@ -4220,7 +4223,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C201">
         <v>49</v>
@@ -4234,7 +4237,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C202">
         <v>49</v>
@@ -4248,7 +4251,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C203">
         <v>48.9</v>
@@ -4262,7 +4265,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C204">
         <v>48.5</v>
@@ -4276,7 +4279,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C205">
         <v>48.4</v>
@@ -4290,7 +4293,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C206">
         <v>48.3</v>
@@ -4304,7 +4307,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C207">
         <v>48.2</v>
@@ -4318,7 +4321,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C208">
         <v>48</v>
@@ -4332,7 +4335,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C209">
         <v>47.9</v>
@@ -4346,7 +4349,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C210">
         <v>47.9</v>
@@ -4360,7 +4363,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C211">
         <v>47.9</v>
@@ -4374,7 +4377,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C212">
         <v>47.1</v>
@@ -4388,7 +4391,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C213">
         <v>47.1</v>
@@ -4402,7 +4405,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C214">
         <v>47</v>
@@ -4416,7 +4419,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C215">
         <v>47</v>
@@ -4430,7 +4433,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C216">
         <v>46.4</v>
@@ -4444,7 +4447,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C217">
         <v>46</v>
@@ -4458,7 +4461,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C218">
         <v>45.9</v>
@@ -4472,7 +4475,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C219">
         <v>45.3</v>
@@ -4486,7 +4489,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C220">
         <v>45</v>
@@ -4500,7 +4503,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C221">
         <v>44</v>
@@ -4514,7 +4517,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C222">
         <v>43.9</v>
@@ -4528,7 +4531,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C223">
         <v>43.5</v>
@@ -4542,7 +4545,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C224">
         <v>43.5</v>
@@ -4556,7 +4559,7 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C225">
         <v>43</v>
@@ -4570,7 +4573,7 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C226">
         <v>42.9</v>
@@ -4584,7 +4587,7 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C227">
         <v>42.7</v>
@@ -4598,7 +4601,7 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C228">
         <v>42.1</v>
@@ -4612,7 +4615,7 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C229">
         <v>41.8</v>
@@ -4626,7 +4629,7 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C230">
         <v>41.6</v>
@@ -4640,7 +4643,7 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C231">
         <v>40.9</v>
@@ -4654,7 +4657,7 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C232">
         <v>40.3</v>
@@ -4668,7 +4671,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C233">
         <v>40.3</v>
@@ -4682,7 +4685,7 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C234">
         <v>40.2</v>
@@ -4696,7 +4699,7 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C235">
         <v>39.9</v>
@@ -4710,7 +4713,7 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C236">
         <v>39.8</v>
@@ -4724,7 +4727,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C237">
         <v>39.2</v>
@@ -4738,7 +4741,7 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C238">
         <v>38.9</v>
@@ -4752,7 +4755,7 @@
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C239">
         <v>38.8</v>
@@ -4766,7 +4769,7 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C240">
         <v>38.7</v>
@@ -4780,7 +4783,7 @@
         <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C241">
         <v>38.6</v>
@@ -4794,7 +4797,7 @@
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C242">
         <v>38.4</v>
@@ -4808,7 +4811,7 @@
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C243">
         <v>38.1</v>
@@ -4822,7 +4825,7 @@
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C244">
         <v>38</v>
@@ -4836,7 +4839,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C245">
         <v>37.8</v>
@@ -4850,7 +4853,7 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C246">
         <v>37.7</v>
@@ -4864,7 +4867,7 @@
         <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C247">
         <v>37.4</v>
@@ -4878,7 +4881,7 @@
         <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C248">
         <v>37.1</v>
@@ -4892,7 +4895,7 @@
         <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C249">
         <v>37.1</v>
@@ -4906,7 +4909,7 @@
         <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C250">
         <v>36.9</v>
@@ -4920,7 +4923,7 @@
         <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C251">
         <v>36.8</v>
@@ -4934,7 +4937,7 @@
         <v>252</v>
       </c>
       <c r="B252" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C252">
         <v>36.5</v>
@@ -4948,7 +4951,7 @@
         <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C253">
         <v>35.7</v>
@@ -4962,7 +4965,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C254">
         <v>35.7</v>
@@ -4976,7 +4979,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C255">
         <v>35.6</v>
@@ -4990,7 +4993,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C256">
         <v>35.6</v>
@@ -5004,7 +5007,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C257">
         <v>35.6</v>
@@ -5018,7 +5021,7 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C258">
         <v>35.3</v>
@@ -5032,7 +5035,7 @@
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C259">
         <v>35.1</v>
@@ -5046,7 +5049,7 @@
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C260">
         <v>34.7</v>
@@ -5060,7 +5063,7 @@
         <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C261">
         <v>34.5</v>
@@ -5074,7 +5077,7 @@
         <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C262">
         <v>33.7</v>
@@ -5088,7 +5091,7 @@
         <v>263</v>
       </c>
       <c r="B263" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C263">
         <v>33.7</v>
@@ -5102,7 +5105,7 @@
         <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C264">
         <v>33.6</v>
@@ -5116,7 +5119,7 @@
         <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C265">
         <v>33.4</v>
@@ -5130,7 +5133,7 @@
         <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C266">
         <v>33.3</v>
@@ -5144,7 +5147,7 @@
         <v>267</v>
       </c>
       <c r="B267" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C267">
         <v>33.2</v>
@@ -5158,7 +5161,7 @@
         <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C268">
         <v>33.1</v>
@@ -5172,7 +5175,7 @@
         <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C269">
         <v>32.7</v>
@@ -5186,7 +5189,7 @@
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C270">
         <v>32.5</v>
@@ -5200,7 +5203,7 @@
         <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C271">
         <v>32.2</v>
@@ -5214,7 +5217,7 @@
         <v>273</v>
       </c>
       <c r="B272" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C272">
         <v>31.6</v>
@@ -5228,7 +5231,7 @@
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C273">
         <v>31.1</v>
@@ -5242,7 +5245,7 @@
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C274">
         <v>30.1</v>
@@ -5256,7 +5259,7 @@
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C275">
         <v>30</v>
@@ -5270,7 +5273,7 @@
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C276">
         <v>29.9</v>
@@ -5284,7 +5287,7 @@
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C277">
         <v>29.8</v>
@@ -5298,7 +5301,7 @@
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C278">
         <v>29.1</v>
@@ -5312,7 +5315,7 @@
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C279">
         <v>29</v>
@@ -5326,7 +5329,7 @@
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C280">
         <v>29</v>
@@ -5340,7 +5343,7 @@
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C281">
         <v>29</v>
@@ -5354,7 +5357,7 @@
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C282">
         <v>28.8</v>
@@ -5368,7 +5371,7 @@
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C283">
         <v>28.7</v>
@@ -5382,7 +5385,7 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C284">
         <v>28.7</v>
@@ -5396,7 +5399,7 @@
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C285">
         <v>28</v>
@@ -5410,7 +5413,7 @@
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C286">
         <v>27.6</v>
@@ -5424,7 +5427,7 @@
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C287">
         <v>27.4</v>
@@ -5438,7 +5441,7 @@
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C288">
         <v>27.3</v>
@@ -5452,7 +5455,7 @@
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C289">
         <v>26.5</v>
@@ -5466,7 +5469,7 @@
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C290">
         <v>26.3</v>
@@ -5480,7 +5483,7 @@
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C291">
         <v>26.1</v>
@@ -5494,7 +5497,7 @@
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C292">
         <v>25.6</v>
@@ -5508,7 +5511,7 @@
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C293">
         <v>25.5</v>
@@ -5522,7 +5525,7 @@
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C294">
         <v>25.2</v>
@@ -5536,7 +5539,7 @@
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C295">
         <v>25.2</v>
@@ -5550,7 +5553,7 @@
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C296">
         <v>25.1</v>
@@ -5564,7 +5567,7 @@
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C297">
         <v>24.8</v>
@@ -5578,7 +5581,7 @@
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C298">
         <v>24.8</v>
@@ -5592,7 +5595,7 @@
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C299">
         <v>24.6</v>
@@ -5606,7 +5609,7 @@
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C300">
         <v>24.6</v>
@@ -5620,7 +5623,7 @@
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C301">
         <v>24.3</v>
@@ -5634,7 +5637,7 @@
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C302">
         <v>23.8</v>
@@ -5648,7 +5651,7 @@
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C303">
         <v>23.7</v>
@@ -5662,7 +5665,7 @@
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C304">
         <v>23.5</v>
@@ -5676,7 +5679,7 @@
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C305">
         <v>23.4</v>
@@ -5690,7 +5693,7 @@
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C306">
         <v>23.1</v>
@@ -5704,7 +5707,7 @@
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C307">
         <v>23</v>
@@ -5718,7 +5721,7 @@
         <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C308">
         <v>22.9</v>
@@ -5732,7 +5735,7 @@
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C309">
         <v>22.3</v>
@@ -5746,7 +5749,7 @@
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C310">
         <v>22.3</v>
@@ -5760,7 +5763,7 @@
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C311">
         <v>22.2</v>
@@ -5774,7 +5777,7 @@
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C312">
         <v>22.1</v>
@@ -5788,7 +5791,7 @@
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C313">
         <v>22</v>
@@ -5802,7 +5805,7 @@
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C314">
         <v>21.9</v>
@@ -5816,7 +5819,7 @@
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C315">
         <v>21.7</v>
@@ -5830,7 +5833,7 @@
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C316">
         <v>19.5</v>
@@ -5844,7 +5847,7 @@
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C317">
         <v>19.2</v>
@@ -5858,7 +5861,7 @@
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C318">
         <v>18.8</v>
@@ -5872,7 +5875,7 @@
         <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C319">
         <v>18.1</v>
@@ -5886,7 +5889,7 @@
         <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C320">
         <v>17.5</v>
@@ -5900,7 +5903,7 @@
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C321">
         <v>15.9</v>
@@ -5914,7 +5917,7 @@
         <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C322">
         <v>15.8</v>
@@ -5928,7 +5931,7 @@
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C323">
         <v>15</v>
@@ -5942,7 +5945,7 @@
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C324">
         <v>12.4</v>
@@ -5953,7 +5956,7 @@
     </row>
     <row r="325" spans="1:4">
       <c r="B325" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C325">
         <v>52.01</v>
@@ -5964,7 +5967,7 @@
     </row>
     <row r="326" spans="1:4">
       <c r="B326" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C326">
         <v>31.98</v>
@@ -5975,7 +5978,7 @@
     </row>
     <row r="327" spans="1:4">
       <c r="B327" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C327">
         <v>27.59</v>
@@ -5986,7 +5989,7 @@
     </row>
     <row r="328" spans="1:4">
       <c r="B328" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C328">
         <v>58.98</v>
@@ -5997,7 +6000,7 @@
     </row>
     <row r="329" spans="1:4">
       <c r="B329" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C329">
         <v>11.82</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="330" spans="1:4">
       <c r="B330" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C330">
         <v>48.54</v>
@@ -6019,7 +6022,7 @@
     </row>
     <row r="331" spans="1:4">
       <c r="B331" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C331">
         <v>37.44</v>
@@ -6030,7 +6033,7 @@
     </row>
     <row r="332" spans="1:4">
       <c r="B332" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C332">
         <v>26.22</v>
@@ -6041,7 +6044,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="B333" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C333">
         <v>23.72</v>
@@ -6052,7 +6055,7 @@
     </row>
     <row r="334" spans="1:4">
       <c r="B334" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C334">
         <v>33.74</v>
@@ -6063,7 +6066,7 @@
     </row>
     <row r="335" spans="1:4">
       <c r="B335" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C335">
         <v>27.19</v>
@@ -6074,7 +6077,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="B336" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C336">
         <v>31.31</v>
@@ -6083,9 +6086,9 @@
         <v>51.81</v>
       </c>
     </row>
-    <row r="337" spans="2:4">
+    <row r="337" spans="1:4">
       <c r="B337" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C337">
         <v>39.13</v>
@@ -6094,9 +6097,9 @@
         <v>68.79000000000001</v>
       </c>
     </row>
-    <row r="338" spans="2:4">
+    <row r="338" spans="1:4">
       <c r="B338" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C338">
         <v>41.48</v>
@@ -6105,9 +6108,9 @@
         <v>71.23</v>
       </c>
     </row>
-    <row r="339" spans="2:4">
+    <row r="339" spans="1:4">
       <c r="B339" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C339">
         <v>47.34</v>
@@ -6116,9 +6119,9 @@
         <v>83.79000000000001</v>
       </c>
     </row>
-    <row r="340" spans="2:4">
+    <row r="340" spans="1:4">
       <c r="B340" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C340">
         <v>43.17</v>
@@ -6127,9 +6130,9 @@
         <v>72.72</v>
       </c>
     </row>
-    <row r="341" spans="2:4">
+    <row r="341" spans="1:4">
       <c r="B341" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C341">
         <v>37.47</v>
@@ -6138,9 +6141,9 @@
         <v>64.02</v>
       </c>
     </row>
-    <row r="342" spans="2:4">
+    <row r="342" spans="1:4">
       <c r="B342" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C342">
         <v>13.28</v>
@@ -6149,14 +6152,280 @@
         <v>30.69</v>
       </c>
     </row>
-    <row r="343" spans="2:4">
+    <row r="343" spans="1:4">
       <c r="B343" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C343">
         <v>45.53</v>
       </c>
       <c r="D343">
+        <v>78.69</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" t="s">
+        <v>4</v>
+      </c>
+      <c r="B344" t="s">
+        <v>328</v>
+      </c>
+      <c r="C344">
+        <v>52.01</v>
+      </c>
+      <c r="D344">
+        <v>90.56999999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" t="s">
+        <v>4</v>
+      </c>
+      <c r="B345" t="s">
+        <v>329</v>
+      </c>
+      <c r="C345">
+        <v>31.98</v>
+      </c>
+      <c r="D345">
+        <v>54.84</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" t="s">
+        <v>4</v>
+      </c>
+      <c r="B346" t="s">
+        <v>330</v>
+      </c>
+      <c r="C346">
+        <v>27.59</v>
+      </c>
+      <c r="D346">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" t="s">
+        <v>4</v>
+      </c>
+      <c r="B347" t="s">
+        <v>331</v>
+      </c>
+      <c r="C347">
+        <v>58.98</v>
+      </c>
+      <c r="D347">
+        <v>103.55</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" t="s">
+        <v>4</v>
+      </c>
+      <c r="B348" t="s">
+        <v>332</v>
+      </c>
+      <c r="C348">
+        <v>11.82</v>
+      </c>
+      <c r="D348">
+        <v>23.88</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" t="s">
+        <v>4</v>
+      </c>
+      <c r="B349" t="s">
+        <v>333</v>
+      </c>
+      <c r="C349">
+        <v>48.54</v>
+      </c>
+      <c r="D349">
+        <v>81.83</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" t="s">
+        <v>4</v>
+      </c>
+      <c r="B350" t="s">
+        <v>334</v>
+      </c>
+      <c r="C350">
+        <v>37.44</v>
+      </c>
+      <c r="D350">
+        <v>64.45</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" t="s">
+        <v>4</v>
+      </c>
+      <c r="B351" t="s">
+        <v>335</v>
+      </c>
+      <c r="C351">
+        <v>26.22</v>
+      </c>
+      <c r="D351">
+        <v>52.94</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" t="s">
+        <v>4</v>
+      </c>
+      <c r="B352" t="s">
+        <v>336</v>
+      </c>
+      <c r="C352">
+        <v>23.72</v>
+      </c>
+      <c r="D352">
+        <v>39.97</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" t="s">
+        <v>4</v>
+      </c>
+      <c r="B353" t="s">
+        <v>337</v>
+      </c>
+      <c r="C353">
+        <v>33.74</v>
+      </c>
+      <c r="D353">
+        <v>54.75</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" t="s">
+        <v>4</v>
+      </c>
+      <c r="B354" t="s">
+        <v>338</v>
+      </c>
+      <c r="C354">
+        <v>27.19</v>
+      </c>
+      <c r="D354">
+        <v>46.25</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" t="s">
+        <v>4</v>
+      </c>
+      <c r="B355" t="s">
+        <v>339</v>
+      </c>
+      <c r="C355">
+        <v>31.31</v>
+      </c>
+      <c r="D355">
+        <v>51.81</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" t="s">
+        <v>4</v>
+      </c>
+      <c r="B356" t="s">
+        <v>340</v>
+      </c>
+      <c r="C356">
+        <v>39.13</v>
+      </c>
+      <c r="D356">
+        <v>68.79000000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" t="s">
+        <v>4</v>
+      </c>
+      <c r="B357" t="s">
+        <v>341</v>
+      </c>
+      <c r="C357">
+        <v>41.48</v>
+      </c>
+      <c r="D357">
+        <v>71.23</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" t="s">
+        <v>4</v>
+      </c>
+      <c r="B358" t="s">
+        <v>342</v>
+      </c>
+      <c r="C358">
+        <v>47.34</v>
+      </c>
+      <c r="D358">
+        <v>83.79000000000001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" t="s">
+        <v>4</v>
+      </c>
+      <c r="B359" t="s">
+        <v>343</v>
+      </c>
+      <c r="C359">
+        <v>43.17</v>
+      </c>
+      <c r="D359">
+        <v>72.72</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" t="s">
+        <v>4</v>
+      </c>
+      <c r="B360" t="s">
+        <v>344</v>
+      </c>
+      <c r="C360">
+        <v>37.47</v>
+      </c>
+      <c r="D360">
+        <v>64.02</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" t="s">
+        <v>4</v>
+      </c>
+      <c r="B361" t="s">
+        <v>345</v>
+      </c>
+      <c r="C361">
+        <v>13.28</v>
+      </c>
+      <c r="D361">
+        <v>30.69</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" t="s">
+        <v>4</v>
+      </c>
+      <c r="B362" t="s">
+        <v>346</v>
+      </c>
+      <c r="C362">
+        <v>45.53</v>
+      </c>
+      <c r="D362">
         <v>78.69</v>
       </c>
     </row>
